--- a/my_work/TrueData/YearMeanER56651_丽江.xlsx
+++ b/my_work/TrueData/YearMeanER56651_丽江.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TD\my_work\TrueData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38813893-6A71-47FF-98D8-04CE82E869BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A576017D-C07A-445A-AC68-EDCB6EF26F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26430" yWindow="1635" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27540" yWindow="2550" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -436,7 +436,7 @@
   <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
